--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15822,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16050,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16107,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16506,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16677,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16910,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16967,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17029,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17086,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17433,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17547,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17661,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17718,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18236,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18464,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18749,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18806,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18863,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19034,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19091,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19148,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19205,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19262,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19376,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19490,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19547,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19775,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19832,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19889,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20003,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20060,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20521,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20578,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20635,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23262,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23557,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23614,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24246,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24531,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24588,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24645,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24821,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25277,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25334,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25391,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25966,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26023,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26080,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26137,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26365,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26422,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26536,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26650,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26707,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29768,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29944,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30001,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30177,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30410,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30467,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30524,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30581,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30638,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15754,6 +15754,26 @@
         <v>0</v>
       </c>
       <c r="R236" s="2" t="inlineStr"/>
+      <c r="U236">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 29118-2020.png")</f>
+        <v/>
+      </c>
+      <c r="V236">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 29118-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="W236">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 29118-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="X236">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 29118-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="Y236">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 29118-2020.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
@@ -15765,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15822,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15879,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15936,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15993,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16050,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16107,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16164,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16221,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16278,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16335,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16392,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16449,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16506,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16563,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16620,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16677,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16734,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16791,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16848,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16910,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16967,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17029,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17086,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17148,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17205,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17262,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17319,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17376,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17433,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17490,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17547,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17604,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17661,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17718,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17780,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17837,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17894,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17951,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18008,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18065,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18122,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18179,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18236,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18293,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18350,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18407,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18464,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18521,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18578,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18635,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18692,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18749,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18806,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18863,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18920,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18977,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19034,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19091,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19148,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19205,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19262,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19319,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19376,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19433,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19490,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19547,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19604,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19661,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19718,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19775,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19832,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19889,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19946,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20003,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20060,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20117,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20174,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20231,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20288,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20345,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20402,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20459,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20521,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20578,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20635,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20692,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20749,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20806,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20863,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20920,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20977,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21034,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21091,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21148,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21205,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21262,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21319,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21376,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21433,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21490,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21547,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21604,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21661,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21718,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21775,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21832,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21889,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21946,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22008,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22065,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22122,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22179,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22236,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22293,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22350,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22407,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22464,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22521,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22578,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22635,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22692,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22749,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22806,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22863,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22920,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22977,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23034,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23091,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23148,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23205,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23262,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23324,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23381,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23438,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23495,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23557,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23614,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23671,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23728,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23790,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23847,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23904,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23961,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24018,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24075,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24132,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24189,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24246,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24303,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24360,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24417,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24474,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24531,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24588,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24645,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24702,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24764,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24821,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24878,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24935,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24992,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25049,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25106,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25163,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25220,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25277,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25334,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25391,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25453,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25510,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25567,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25624,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25681,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25738,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25795,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25852,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25909,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25966,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26023,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26080,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26137,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26194,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26251,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26308,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26365,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26422,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26479,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26536,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26593,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26650,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26707,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26764,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26826,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26883,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26940,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26997,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27054,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27116,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27173,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27230,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27287,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27344,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27401,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27458,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27515,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27572,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27629,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27686,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27743,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27800,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27857,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27914,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27971,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28028,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28085,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28142,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28199,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28256,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28313,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28370,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28427,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28484,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28541,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28598,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28655,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28712,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28769,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28826,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28883,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28940,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28997,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29054,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29111,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29168,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29225,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29287,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29349,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29406,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29463,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29525,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29587,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29649,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29706,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29768,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29825,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29882,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29944,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30001,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30058,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30115,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30177,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30239,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30296,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30353,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30410,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30467,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30524,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30581,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30638,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y496"/>
+  <dimension ref="A1:Y497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -647,27 +647,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 31665-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 31665-2023.xlsx", "A 31665-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 31665-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 31665-2023.png", "A 31665-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 31665-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 31665-2023.docx", "A 31665-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 31665-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 31665-2023.docx", "A 31665-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 31665-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 31665-2023.docx", "A 31665-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 31665-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 31665-2023.docx", "A 31665-2023")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -750,27 +750,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41266-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41266-2021.xlsx", "A 41266-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41266-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41266-2021.png", "A 41266-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41266-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41266-2021.docx", "A 41266-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41266-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41266-2021.docx", "A 41266-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41266-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41266-2021.docx", "A 41266-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41266-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41266-2021.docx", "A 41266-2021")</f>
         <v/>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -846,27 +846,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 21924-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 21924-2019.xlsx", "A 21924-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 21924-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 21924-2019.png", "A 21924-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 21924-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 21924-2019.docx", "A 21924-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 21924-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 21924-2019.docx", "A 21924-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 21924-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 21924-2019.docx", "A 21924-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 21924-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 21924-2019.docx", "A 21924-2019")</f>
         <v/>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,31 +939,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 7475-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 7475-2023.xlsx", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 7475-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 7475-2023.png", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 7475-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 7475-2023.png", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 7475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 7475-2023.docx", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 7475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 7475-2023.docx", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 7475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 7475-2023.docx", "A 7475-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 7475-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 7475-2023.docx", "A 7475-2023")</f>
         <v/>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1035,27 +1035,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 21915-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 21915-2019.xlsx", "A 21915-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 21915-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 21915-2019.png", "A 21915-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 21915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 21915-2019.docx", "A 21915-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 21915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 21915-2019.docx", "A 21915-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 21915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 21915-2019.docx", "A 21915-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 21915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 21915-2019.docx", "A 21915-2019")</f>
         <v/>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1131,27 +1131,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 39281-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 39281-2022.xlsx", "A 39281-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 39281-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 39281-2022.png", "A 39281-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 39281-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 39281-2022.docx", "A 39281-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 39281-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 39281-2022.docx", "A 39281-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 39281-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 39281-2022.docx", "A 39281-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 39281-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 39281-2022.docx", "A 39281-2022")</f>
         <v/>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,27 +1227,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 20013-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 20013-2023.xlsx", "A 20013-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 20013-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 20013-2023.png", "A 20013-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 20013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 20013-2023.docx", "A 20013-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 20013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 20013-2023.docx", "A 20013-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 20013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 20013-2023.docx", "A 20013-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 20013-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 20013-2023.docx", "A 20013-2023")</f>
         <v/>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1322,27 +1322,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 53162-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 53162-2022.xlsx", "A 53162-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 53162-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 53162-2022.png", "A 53162-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 53162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 53162-2022.docx", "A 53162-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 53162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 53162-2022.docx", "A 53162-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 53162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 53162-2022.docx", "A 53162-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 53162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 53162-2022.docx", "A 53162-2022")</f>
         <v/>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,27 +1416,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 70338-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 70338-2018.xlsx", "A 70338-2018")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 70338-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 70338-2018.png", "A 70338-2018")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 70338-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 70338-2018.docx", "A 70338-2018")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 70338-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 70338-2018.docx", "A 70338-2018")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 70338-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 70338-2018.docx", "A 70338-2018")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 70338-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 70338-2018.docx", "A 70338-2018")</f>
         <v/>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1510,27 +1510,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 55371-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 55371-2020.xlsx", "A 55371-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 55371-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 55371-2020.png", "A 55371-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 55371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 55371-2020.docx", "A 55371-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 55371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 55371-2020.docx", "A 55371-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 55371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 55371-2020.docx", "A 55371-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 55371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 55371-2020.docx", "A 55371-2020")</f>
         <v/>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1603,27 +1603,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 53167-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 53167-2022.xlsx", "A 53167-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 53167-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 53167-2022.png", "A 53167-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 53167-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 53167-2022.docx", "A 53167-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 53167-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 53167-2022.docx", "A 53167-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 53167-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 53167-2022.docx", "A 53167-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 53167-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 53167-2022.docx", "A 53167-2022")</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1690,31 +1690,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 6509-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 6509-2020.xlsx", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 6509-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 6509-2020.png", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 6509-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 6509-2020.png", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 6509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 6509-2020.docx", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 6509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 6509-2020.docx", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 6509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 6509-2020.docx", "A 6509-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 6509-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 6509-2020.docx", "A 6509-2020")</f>
         <v/>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1781,31 +1781,31 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25348-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25348-2020.xlsx", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25348-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25348-2020.png", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="U14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 25348-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 25348-2020.png", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25348-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25348-2020.docx", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25348-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25348-2020.docx", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25348-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25348-2020.docx", "A 25348-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25348-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25348-2020.docx", "A 25348-2020")</f>
         <v/>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1872,31 +1872,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 46995-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 46995-2021.xlsx", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 46995-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 46995-2021.png", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 46995-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 46995-2021.png", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 46995-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 46995-2021.docx", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 46995-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 46995-2021.docx", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 46995-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 46995-2021.docx", "A 46995-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 46995-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 46995-2021.docx", "A 46995-2021")</f>
         <v/>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1963,31 +1963,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25192-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25192-2023.xlsx", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25192-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25192-2023.png", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 25192-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 25192-2023.png", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25192-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25192-2023.docx", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25192-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25192-2023.docx", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25192-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25192-2023.docx", "A 25192-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25192-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25192-2023.docx", "A 25192-2023")</f>
         <v/>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2054,31 +2054,31 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 30705-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 30705-2023.xlsx", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 30705-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 30705-2023.png", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 30705-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 30705-2023.png", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 30705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 30705-2023.docx", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 30705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 30705-2023.docx", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 30705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 30705-2023.docx", "A 30705-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 30705-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 30705-2023.docx", "A 30705-2023")</f>
         <v/>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,31 +2144,31 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 62254-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 62254-2018.xlsx", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 62254-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 62254-2018.png", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="U18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 62254-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 62254-2018.png", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 62254-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 62254-2018.docx", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 62254-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 62254-2018.docx", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 62254-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 62254-2018.docx", "A 62254-2018")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 62254-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 62254-2018.docx", "A 62254-2018")</f>
         <v/>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2234,27 +2234,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 38441-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 38441-2019.xlsx", "A 38441-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 38441-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 38441-2019.png", "A 38441-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 38441-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 38441-2019.docx", "A 38441-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 38441-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 38441-2019.docx", "A 38441-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 38441-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 38441-2019.docx", "A 38441-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 38441-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 38441-2019.docx", "A 38441-2019")</f>
         <v/>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2320,27 +2320,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 43490-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 43490-2019.xlsx", "A 43490-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 43490-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 43490-2019.png", "A 43490-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 43490-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 43490-2019.docx", "A 43490-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 43490-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 43490-2019.docx", "A 43490-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 43490-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 43490-2019.docx", "A 43490-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 43490-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 43490-2019.docx", "A 43490-2019")</f>
         <v/>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,27 +2406,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 8898-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 8898-2020.xlsx", "A 8898-2020")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 8898-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 8898-2020.png", "A 8898-2020")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 8898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 8898-2020.docx", "A 8898-2020")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 8898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 8898-2020.docx", "A 8898-2020")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 8898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 8898-2020.docx", "A 8898-2020")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 8898-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 8898-2020.docx", "A 8898-2020")</f>
         <v/>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2492,27 +2492,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 33362-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 33362-2020.xlsx", "A 33362-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 33362-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 33362-2020.png", "A 33362-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 33362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 33362-2020.docx", "A 33362-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 33362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 33362-2020.docx", "A 33362-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 33362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 33362-2020.docx", "A 33362-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 33362-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 33362-2020.docx", "A 33362-2020")</f>
         <v/>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2578,27 +2578,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 3238-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 3238-2021.xlsx", "A 3238-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 3238-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 3238-2021.png", "A 3238-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 3238-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 3238-2021.docx", "A 3238-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 3238-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 3238-2021.docx", "A 3238-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 3238-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 3238-2021.docx", "A 3238-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 3238-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 3238-2021.docx", "A 3238-2021")</f>
         <v/>
       </c>
     </row>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2664,31 +2664,31 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 40785-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 40785-2022.xlsx", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 40785-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 40785-2022.png", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="U24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 40785-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 40785-2022.png", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 40785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 40785-2022.docx", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 40785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 40785-2022.docx", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 40785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 40785-2022.docx", "A 40785-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 40785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 40785-2022.docx", "A 40785-2022")</f>
         <v/>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2759,27 +2759,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41881-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41881-2022.xlsx", "A 41881-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41881-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41881-2022.png", "A 41881-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41881-2022.docx", "A 41881-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41881-2022.docx", "A 41881-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41881-2022.docx", "A 41881-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41881-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41881-2022.docx", "A 41881-2022")</f>
         <v/>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2850,27 +2850,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 61121-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 61121-2022.xlsx", "A 61121-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 61121-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 61121-2022.png", "A 61121-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 61121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 61121-2022.docx", "A 61121-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 61121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 61121-2022.docx", "A 61121-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 61121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 61121-2022.docx", "A 61121-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 61121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 61121-2022.docx", "A 61121-2022")</f>
         <v/>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,27 +2936,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 1991-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 1991-2023.xlsx", "A 1991-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 1991-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 1991-2023.png", "A 1991-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 1991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 1991-2023.docx", "A 1991-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 1991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 1991-2023.docx", "A 1991-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 1991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 1991-2023.docx", "A 1991-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 1991-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 1991-2023.docx", "A 1991-2023")</f>
         <v/>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3022,27 +3022,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 16431-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 16431-2023.xlsx", "A 16431-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 16431-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 16431-2023.png", "A 16431-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 16431-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 16431-2023.docx", "A 16431-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 16431-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 16431-2023.docx", "A 16431-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 16431-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 16431-2023.docx", "A 16431-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 16431-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 16431-2023.docx", "A 16431-2023")</f>
         <v/>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3108,31 +3108,31 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 32298-2023.xlsx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="U29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 32298-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 32298-2023.png", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 32298-2023.docx", "A 32298-2023")</f>
         <v/>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3202,27 +3202,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 64017-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 64017-2018.xlsx", "A 64017-2018")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 64017-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 64017-2018.png", "A 64017-2018")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 64017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 64017-2018.docx", "A 64017-2018")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 64017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 64017-2018.docx", "A 64017-2018")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 64017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 64017-2018.docx", "A 64017-2018")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 64017-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 64017-2018.docx", "A 64017-2018")</f>
         <v/>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3287,27 +3287,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 34728-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 34728-2019.xlsx", "A 34728-2019")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 34728-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 34728-2019.png", "A 34728-2019")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 34728-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 34728-2019.docx", "A 34728-2019")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 34728-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 34728-2019.docx", "A 34728-2019")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 34728-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 34728-2019.docx", "A 34728-2019")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 34728-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 34728-2019.docx", "A 34728-2019")</f>
         <v/>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3372,27 +3372,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41664-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41664-2019.xlsx", "A 41664-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41664-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41664-2019.png", "A 41664-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41664-2019.docx", "A 41664-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41664-2019.docx", "A 41664-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41664-2019.docx", "A 41664-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41664-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41664-2019.docx", "A 41664-2019")</f>
         <v/>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3457,27 +3457,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 43503-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 43503-2019.xlsx", "A 43503-2019")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 43503-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 43503-2019.png", "A 43503-2019")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 43503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 43503-2019.docx", "A 43503-2019")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 43503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 43503-2019.docx", "A 43503-2019")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 43503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 43503-2019.docx", "A 43503-2019")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 43503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 43503-2019.docx", "A 43503-2019")</f>
         <v/>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3542,27 +3542,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 57302-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 57302-2019.xlsx", "A 57302-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 57302-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 57302-2019.png", "A 57302-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 57302-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 57302-2019.docx", "A 57302-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 57302-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 57302-2019.docx", "A 57302-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 57302-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 57302-2019.docx", "A 57302-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 57302-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 57302-2019.docx", "A 57302-2019")</f>
         <v/>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3627,27 +3627,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 65105-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 65105-2019.xlsx", "A 65105-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 65105-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 65105-2019.png", "A 65105-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 65105-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 65105-2019.docx", "A 65105-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 65105-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 65105-2019.docx", "A 65105-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 65105-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 65105-2019.docx", "A 65105-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 65105-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 65105-2019.docx", "A 65105-2019")</f>
         <v/>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3717,27 +3717,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 69121-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 69121-2019.xlsx", "A 69121-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 69121-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 69121-2019.png", "A 69121-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 69121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 69121-2019.docx", "A 69121-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 69121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 69121-2019.docx", "A 69121-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 69121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 69121-2019.docx", "A 69121-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 69121-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 69121-2019.docx", "A 69121-2019")</f>
         <v/>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3802,31 +3802,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 5038-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 5038-2020.xlsx", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 5038-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 5038-2020.png", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 5038-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 5038-2020.png", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 5038-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 5038-2020.docx", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 5038-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 5038-2020.docx", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 5038-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 5038-2020.docx", "A 5038-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 5038-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 5038-2020.docx", "A 5038-2020")</f>
         <v/>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3891,27 +3891,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 7371-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 7371-2020.xlsx", "A 7371-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 7371-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 7371-2020.png", "A 7371-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 7371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 7371-2020.docx", "A 7371-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 7371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 7371-2020.docx", "A 7371-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 7371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 7371-2020.docx", "A 7371-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 7371-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 7371-2020.docx", "A 7371-2020")</f>
         <v/>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3976,27 +3976,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 29616-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 29616-2020.xlsx", "A 29616-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 29616-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 29616-2020.png", "A 29616-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 29616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 29616-2020.docx", "A 29616-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 29616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 29616-2020.docx", "A 29616-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 29616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 29616-2020.docx", "A 29616-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 29616-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 29616-2020.docx", "A 29616-2020")</f>
         <v/>
       </c>
     </row>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,27 +4061,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 32143-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 32143-2020.xlsx", "A 32143-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 32143-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 32143-2020.png", "A 32143-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 32143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 32143-2020.docx", "A 32143-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 32143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 32143-2020.docx", "A 32143-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 32143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 32143-2020.docx", "A 32143-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 32143-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 32143-2020.docx", "A 32143-2020")</f>
         <v/>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4146,31 +4146,31 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 4313-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 4313-2021.xlsx", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 4313-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 4313-2021.png", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="U41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 4313-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 4313-2021.png", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 4313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 4313-2021.docx", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 4313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 4313-2021.docx", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 4313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 4313-2021.docx", "A 4313-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 4313-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 4313-2021.docx", "A 4313-2021")</f>
         <v/>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4235,31 +4235,31 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 31170-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 31170-2021.xlsx", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 31170-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 31170-2021.png", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="U42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 31170-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 31170-2021.png", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 31170-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 31170-2021.docx", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 31170-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 31170-2021.docx", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 31170-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 31170-2021.docx", "A 31170-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 31170-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 31170-2021.docx", "A 31170-2021")</f>
         <v/>
       </c>
     </row>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4324,27 +4324,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41263-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41263-2021.xlsx", "A 41263-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41263-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41263-2021.png", "A 41263-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41263-2021.docx", "A 41263-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41263-2021.docx", "A 41263-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41263-2021.docx", "A 41263-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41263-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41263-2021.docx", "A 41263-2021")</f>
         <v/>
       </c>
     </row>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4409,31 +4409,31 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 34081-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 34081-2022.xlsx", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 34081-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 34081-2022.png", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="U44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 34081-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 34081-2022.png", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 34081-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 34081-2022.docx", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 34081-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 34081-2022.docx", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 34081-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 34081-2022.docx", "A 34081-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 34081-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 34081-2022.docx", "A 34081-2022")</f>
         <v/>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4498,27 +4498,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 39199-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 39199-2022.xlsx", "A 39199-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 39199-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 39199-2022.png", "A 39199-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 39199-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 39199-2022.docx", "A 39199-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 39199-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 39199-2022.docx", "A 39199-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 39199-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 39199-2022.docx", "A 39199-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 39199-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 39199-2022.docx", "A 39199-2022")</f>
         <v/>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4588,27 +4588,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41879-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 41879-2022.xlsx", "A 41879-2022")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41879-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 41879-2022.png", "A 41879-2022")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 41879-2022.docx", "A 41879-2022")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 41879-2022.docx", "A 41879-2022")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 41879-2022.docx", "A 41879-2022")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41879-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 41879-2022.docx", "A 41879-2022")</f>
         <v/>
       </c>
     </row>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4673,31 +4673,31 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 47672-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 47672-2022.xlsx", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 47672-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 47672-2022.png", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="U47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 47672-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 47672-2022.png", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 47672-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 47672-2022.docx", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 47672-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 47672-2022.docx", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 47672-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 47672-2022.docx", "A 47672-2022")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 47672-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 47672-2022.docx", "A 47672-2022")</f>
         <v/>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4762,31 +4762,31 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 54924-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 54924-2022.xlsx", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 54924-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 54924-2022.png", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="U48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 54924-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 54924-2022.png", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 54924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 54924-2022.docx", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 54924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 54924-2022.docx", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 54924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 54924-2022.docx", "A 54924-2022")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 54924-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 54924-2022.docx", "A 54924-2022")</f>
         <v/>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4851,27 +4851,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 4371-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 4371-2023.xlsx", "A 4371-2023")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 4371-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 4371-2023.png", "A 4371-2023")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 4371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 4371-2023.docx", "A 4371-2023")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 4371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 4371-2023.docx", "A 4371-2023")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 4371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 4371-2023.docx", "A 4371-2023")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 4371-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 4371-2023.docx", "A 4371-2023")</f>
         <v/>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 8886-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 8886-2023.xlsx", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 8886-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 8886-2023.png", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="U50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 8886-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 8886-2023.png", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 8886-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 8886-2023.docx", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 8886-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 8886-2023.docx", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 8886-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 8886-2023.docx", "A 8886-2023")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 8886-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 8886-2023.docx", "A 8886-2023")</f>
         <v/>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5025,27 +5025,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25218-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25218-2023.xlsx", "A 25218-2023")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25218-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25218-2023.png", "A 25218-2023")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25218-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25218-2023.docx", "A 25218-2023")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25218-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25218-2023.docx", "A 25218-2023")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25218-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25218-2023.docx", "A 25218-2023")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25218-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25218-2023.docx", "A 25218-2023")</f>
         <v/>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5110,27 +5110,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25231-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 25231-2023.xlsx", "A 25231-2023")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25231-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 25231-2023.png", "A 25231-2023")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 25231-2023.docx", "A 25231-2023")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 25231-2023.docx", "A 25231-2023")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 25231-2023.docx", "A 25231-2023")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25231-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 25231-2023.docx", "A 25231-2023")</f>
         <v/>
       </c>
     </row>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5195,27 +5195,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 27546-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/artfynd/A 27546-2023.xlsx", "A 27546-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 27546-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/kartor/A 27546-2023.png", "A 27546-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 27546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 27546-2023.docx", "A 27546-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 27546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 27546-2023.docx", "A 27546-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 27546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 27546-2023.docx", "A 27546-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 27546-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 27546-2023.docx", "A 27546-2023")</f>
         <v/>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15755,23 +15755,23 @@
       </c>
       <c r="R236" s="2" t="inlineStr"/>
       <c r="U236">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 29118-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/knärot/A 29118-2020.png", "A 29118-2020")</f>
         <v/>
       </c>
       <c r="V236">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 29118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomål/A 29118-2020.docx", "A 29118-2020")</f>
         <v/>
       </c>
       <c r="W236">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 29118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/klagomålsmail/A 29118-2020.docx", "A 29118-2020")</f>
         <v/>
       </c>
       <c r="X236">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 29118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsyn/A 29118-2020.docx", "A 29118-2020")</f>
         <v/>
       </c>
       <c r="Y236">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 29118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MONSTERAS/tillsynsmail/A 29118-2020.docx", "A 29118-2020")</f>
         <v/>
       </c>
     </row>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
       </c>
       <c r="R495" s="2" t="inlineStr"/>
     </row>
-    <row r="496">
+    <row r="496" ht="15" customHeight="1">
       <c r="A496" t="inlineStr">
         <is>
           <t>A 40185-2023</t>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30704,6 +30704,63 @@
         <v>0</v>
       </c>
       <c r="R496" s="2" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>A 43583-2023</t>
+        </is>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C497" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>MÖNSTERÅS</t>
+        </is>
+      </c>
+      <c r="G497" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N497" t="n">
+        <v>0</v>
+      </c>
+      <c r="O497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R497" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y497"/>
+  <dimension ref="A1:Y498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30705,7 +30705,7 @@
       </c>
       <c r="R496" s="2" t="inlineStr"/>
     </row>
-    <row r="497">
+    <row r="497" ht="15" customHeight="1">
       <c r="A497" t="inlineStr">
         <is>
           <t>A 43583-2023</t>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30761,6 +30761,63 @@
         <v>0</v>
       </c>
       <c r="R497" s="2" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>A 44001-2023</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C498" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>MÖNSTERÅS</t>
+        </is>
+      </c>
+      <c r="G498" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N498" t="n">
+        <v>0</v>
+      </c>
+      <c r="O498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R498" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>

--- a/Översikt MÖNSTERÅS.xlsx
+++ b/Översikt MÖNSTERÅS.xlsx
@@ -572,7 +572,7 @@
         <v>45106</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44424</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>43584</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44971</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>43584</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
         <v>44817</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         <v>45054</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         <v>44873</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>43446</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         <v>44130</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>44873</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>43867</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44446</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         <v>45079</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>45103</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>43425</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>43685</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43706</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         <v>43878</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         <v>44215</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         <v>44824</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>44827</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44908</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>44939</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>45022</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43430</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>43648</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
         <v>43699</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>43706</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43760</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43802</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>43815</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
         <v>43859</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43871</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>44004</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         <v>44015</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>44223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44368</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>44424</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44791</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         <v>44827</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>44854</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44886</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>44955</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4885,7 +4885,7 @@
         <v>44979</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45086</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>45086</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>43353</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>43384</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>43413</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>43416</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>43416</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>43418</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>43418</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>43418</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>43418</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>43422</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>43430</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>43432</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>43433</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>43438</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>43444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>43444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>43444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>43446</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
         <v>43451</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6446,7 +6446,7 @@
         <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
         <v>43462</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
         <v>43462</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
         <v>43468</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43468</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6731,7 +6731,7 @@
         <v>43468</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>43487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>43487</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43495</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43495</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43502</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43502</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7197,7 +7197,7 @@
         <v>43504</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43504</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43508</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7373,7 +7373,7 @@
         <v>43514</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>43517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>43531</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         <v>43535</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7715,7 +7715,7 @@
         <v>43537</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         <v>43537</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7829,7 +7829,7 @@
         <v>43542</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7886,7 +7886,7 @@
         <v>43545</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7943,7 +7943,7 @@
         <v>43564</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43564</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43570</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43571</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43579</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43579</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43584</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>43584</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>43584</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8461,7 +8461,7 @@
         <v>43598</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8518,7 +8518,7 @@
         <v>43602</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8575,7 +8575,7 @@
         <v>43602</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8632,7 +8632,7 @@
         <v>43605</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>43608</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8746,7 +8746,7 @@
         <v>43613</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>43613</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>43614</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>43619</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>43619</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>43620</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>43627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>43627</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>43634</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9259,7 +9259,7 @@
         <v>43640</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9316,7 +9316,7 @@
         <v>43648</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>43655</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9435,7 +9435,7 @@
         <v>43655</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43655</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>43655</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
         <v>43655</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9683,7 +9683,7 @@
         <v>43683</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9740,7 +9740,7 @@
         <v>43683</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9797,7 +9797,7 @@
         <v>43683</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>43683</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9911,7 +9911,7 @@
         <v>43683</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
         <v>43685</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10025,7 +10025,7 @@
         <v>43689</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10082,7 +10082,7 @@
         <v>43690</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>43691</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>43691</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>43691</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>43692</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>43692</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>43692</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>43693</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10538,7 +10538,7 @@
         <v>43693</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10595,7 +10595,7 @@
         <v>43696</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>43699</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>43699</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>43700</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>43700</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10880,7 +10880,7 @@
         <v>43700</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10937,7 +10937,7 @@
         <v>43703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         <v>43703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11051,7 +11051,7 @@
         <v>43704</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11108,7 +11108,7 @@
         <v>43704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
         <v>43705</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11222,7 +11222,7 @@
         <v>43705</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11279,7 +11279,7 @@
         <v>43706</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>43706</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
         <v>43706</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11450,7 +11450,7 @@
         <v>43711</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11507,7 +11507,7 @@
         <v>43713</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11564,7 +11564,7 @@
         <v>43714</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43714</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43720</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         <v>43724</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         <v>43731</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11849,7 +11849,7 @@
         <v>43733</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>43735</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>43745</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12025,7 +12025,7 @@
         <v>43745</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12087,7 +12087,7 @@
         <v>43749</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>43760</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>43760</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>43763</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12315,7 +12315,7 @@
         <v>43763</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         <v>43763</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43763</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12486,7 +12486,7 @@
         <v>43767</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12543,7 +12543,7 @@
         <v>43767</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12600,7 +12600,7 @@
         <v>43775</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12657,7 +12657,7 @@
         <v>43776</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43796</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12771,7 +12771,7 @@
         <v>43796</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12828,7 +12828,7 @@
         <v>43809</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>43815</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12952,7 +12952,7 @@
         <v>43815</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
         <v>43815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13071,7 +13071,7 @@
         <v>43816</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         <v>43816</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         <v>43817</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>43819</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13299,7 +13299,7 @@
         <v>43834</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>43834</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>43854</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43858</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43858</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43858</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43859</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13698,7 +13698,7 @@
         <v>43864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13755,7 +13755,7 @@
         <v>43864</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>43868</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13869,7 +13869,7 @@
         <v>43868</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
         <v>43868</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>43868</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>43868</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14097,7 +14097,7 @@
         <v>43868</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>43871</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>43873</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14268,7 +14268,7 @@
         <v>43881</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14325,7 +14325,7 @@
         <v>43881</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14382,7 +14382,7 @@
         <v>43882</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14439,7 +14439,7 @@
         <v>43882</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14496,7 +14496,7 @@
         <v>43882</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
         <v>43887</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>43891</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14667,7 +14667,7 @@
         <v>43895</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14724,7 +14724,7 @@
         <v>43900</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         <v>43906</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43920</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>43921</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>43929</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>43949</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
         <v>43950</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>43950</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43956</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43956</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43956</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43958</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43992</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43992</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>44000</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15651,7 +15651,7 @@
         <v>44000</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>44004</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44004</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44004</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44005</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44008</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44008</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44008</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>44021</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>44025</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>44034</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16298,7 +16298,7 @@
         <v>44034</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16355,7 +16355,7 @@
         <v>44036</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16412,7 +16412,7 @@
         <v>44040</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16469,7 +16469,7 @@
         <v>44047</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16526,7 +16526,7 @@
         <v>44048</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>44053</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>44055</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>44060</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>44061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44062</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>44062</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44063</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16987,7 +16987,7 @@
         <v>44069</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44086</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44096</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>44096</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>44098</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>44098</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>44102</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>44106</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44120</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>44120</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44127</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>44130</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17800,7 +17800,7 @@
         <v>44131</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17857,7 +17857,7 @@
         <v>44131</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17914,7 +17914,7 @@
         <v>44139</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44140</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         <v>44145</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18085,7 +18085,7 @@
         <v>44153</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44157</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44158</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>44159</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>44161</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18370,7 +18370,7 @@
         <v>44168</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>44174</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>44175</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>44180</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18598,7 +18598,7 @@
         <v>44183</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18655,7 +18655,7 @@
         <v>44183</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18712,7 +18712,7 @@
         <v>44183</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18769,7 +18769,7 @@
         <v>44211</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>44214</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         <v>44214</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>44216</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18997,7 +18997,7 @@
         <v>44216</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>44218</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>44221</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
         <v>44222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19282,7 +19282,7 @@
         <v>44223</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19339,7 +19339,7 @@
         <v>44223</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19396,7 +19396,7 @@
         <v>44224</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19453,7 +19453,7 @@
         <v>44230</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44242</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19567,7 +19567,7 @@
         <v>44246</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19624,7 +19624,7 @@
         <v>44249</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19681,7 +19681,7 @@
         <v>44249</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>44253</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19795,7 +19795,7 @@
         <v>44260</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19852,7 +19852,7 @@
         <v>44264</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19909,7 +19909,7 @@
         <v>44264</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44266</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>44285</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>44335</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44361</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>44361</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>44365</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>44370</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44371</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>44382</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44389</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44394</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44411</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44419</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20712,7 +20712,7 @@
         <v>44426</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20769,7 +20769,7 @@
         <v>44426</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20826,7 +20826,7 @@
         <v>44426</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44426</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>44432</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>44433</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>44434</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>44439</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>44440</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>44441</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21282,7 +21282,7 @@
         <v>44449</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21339,7 +21339,7 @@
         <v>44454</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         <v>44455</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21453,7 +21453,7 @@
         <v>44455</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>44455</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21567,7 +21567,7 @@
         <v>44461</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21624,7 +21624,7 @@
         <v>44475</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21681,7 +21681,7 @@
         <v>44487</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21738,7 +21738,7 @@
         <v>44489</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>44495</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21852,7 +21852,7 @@
         <v>44495</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>44511</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
         <v>44517</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>44518</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22085,7 +22085,7 @@
         <v>44518</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22142,7 +22142,7 @@
         <v>44519</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44537</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
         <v>44537</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22313,7 +22313,7 @@
         <v>44546</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22370,7 +22370,7 @@
         <v>44573</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22427,7 +22427,7 @@
         <v>44579</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22484,7 +22484,7 @@
         <v>44591</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22541,7 +22541,7 @@
         <v>44593</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22598,7 +22598,7 @@
         <v>44593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22655,7 +22655,7 @@
         <v>44594</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44595</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22769,7 +22769,7 @@
         <v>44595</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>44595</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22883,7 +22883,7 @@
         <v>44600</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22940,7 +22940,7 @@
         <v>44603</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22997,7 +22997,7 @@
         <v>44606</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23054,7 +23054,7 @@
         <v>44606</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23111,7 +23111,7 @@
         <v>44614</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23168,7 +23168,7 @@
         <v>44619</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23225,7 +23225,7 @@
         <v>44621</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23282,7 +23282,7 @@
         <v>44624</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>44634</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>44638</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>44641</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>44642</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23577,7 +23577,7 @@
         <v>44643</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23634,7 +23634,7 @@
         <v>44644</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23691,7 +23691,7 @@
         <v>44644</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23748,7 +23748,7 @@
         <v>44649</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23810,7 +23810,7 @@
         <v>44651</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23867,7 +23867,7 @@
         <v>44690</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23924,7 +23924,7 @@
         <v>44698</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>44722</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>44727</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>44727</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44739</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44791</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44799</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24323,7 +24323,7 @@
         <v>44802</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44802</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24437,7 +24437,7 @@
         <v>44802</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24494,7 +24494,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24551,7 +24551,7 @@
         <v>44813</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24608,7 +24608,7 @@
         <v>44817</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         <v>44817</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44817</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>44817</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>44817</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>44818</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44820</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44820</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44823</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>44827</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>44827</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>44832</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>44846</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>44853</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>44853</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>44872</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44875</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>44879</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>44904</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>44904</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>44904</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>44904</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44907</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44915</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44917</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>44917</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>44922</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>44922</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44923</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26328,7 +26328,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26385,7 +26385,7 @@
         <v>44923</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26442,7 +26442,7 @@
         <v>44928</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44931</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44931</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44931</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26670,7 +26670,7 @@
         <v>44939</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44939</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44974</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44981</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26903,7 +26903,7 @@
         <v>44981</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26960,7 +26960,7 @@
         <v>44991</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27017,7 +27017,7 @@
         <v>44993</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         <v>45006</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27136,7 +27136,7 @@
         <v>45008</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>45015</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27250,7 +27250,7 @@
         <v>45015</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27307,7 +27307,7 @@
         <v>45015</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45015</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45015</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27478,7 +27478,7 @@
         <v>45022</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27592,7 +27592,7 @@
         <v>45022</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27649,7 +27649,7 @@
         <v>45028</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27706,7 +27706,7 @@
         <v>45034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         <v>45040</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27877,7 +27877,7 @@
         <v>45057</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27934,7 +27934,7 @@
         <v>45057</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45058</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45071</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45071</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45075</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45085</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45085</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45085</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45086</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28447,7 +28447,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28504,7 +28504,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28561,7 +28561,7 @@
         <v>45089</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28618,7 +28618,7 @@
         <v>45089</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28675,7 +28675,7 @@
         <v>45091</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28732,7 +28732,7 @@
         <v>45091</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28789,7 +28789,7 @@
         <v>45091</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28846,7 +28846,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28903,7 +28903,7 @@
         <v>45092</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28960,7 +28960,7 @@
         <v>45092</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29017,7 +29017,7 @@
         <v>45096</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29074,7 +29074,7 @@
         <v>45096</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29131,7 +29131,7 @@
         <v>45097</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29188,7 +29188,7 @@
         <v>45105</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29245,7 +29245,7 @@
         <v>45106</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29307,7 +29307,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29369,7 +29369,7 @@
         <v>45106</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         <v>45106</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29483,7 +29483,7 @@
         <v>45106</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29545,7 +29545,7 @@
         <v>45106</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         <v>45106</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29669,7 +29669,7 @@
         <v>45106</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29726,7 +29726,7 @@
         <v>45106</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45113</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>45113</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>45114</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45132</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45139</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45141</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30135,7 +30135,7 @@
         <v>45152</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30197,7 +30197,7 @@
         <v>45152</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45152</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45155</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45160</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45160</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45163</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45163</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>45169</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>45169</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>45184</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>45188</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
